--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/67/word_level_predictions_67.xlsx
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
